--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H2">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I2">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J2">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.125569</v>
+        <v>1.970755333333333</v>
       </c>
       <c r="N2">
-        <v>6.376707</v>
+        <v>5.912266</v>
       </c>
       <c r="O2">
-        <v>0.1896427067757364</v>
+        <v>0.178292931636603</v>
       </c>
       <c r="P2">
-        <v>0.1896427067757364</v>
+        <v>0.178292931636603</v>
       </c>
       <c r="Q2">
-        <v>145.615960835689</v>
+        <v>0.4168712479862222</v>
       </c>
       <c r="R2">
-        <v>1310.543647521201</v>
+        <v>3.751841231876</v>
       </c>
       <c r="S2">
-        <v>0.1832681526582709</v>
+        <v>0.01453684316825913</v>
       </c>
       <c r="T2">
-        <v>0.183268152658271</v>
+        <v>0.01453684316825913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H3">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I3">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J3">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>19.629419</v>
       </c>
       <c r="O3">
-        <v>0.5837771990456937</v>
+        <v>0.5919535183013138</v>
       </c>
       <c r="P3">
-        <v>0.5837771990456937</v>
+        <v>0.5919535183013139</v>
       </c>
       <c r="Q3">
-        <v>448.2496543014018</v>
+        <v>1.384061609503778</v>
       </c>
       <c r="R3">
-        <v>4034.246888712617</v>
+        <v>12.456554485534</v>
       </c>
       <c r="S3">
-        <v>0.5641544072646215</v>
+        <v>0.04826403032053123</v>
       </c>
       <c r="T3">
-        <v>0.5641544072646217</v>
+        <v>0.04826403032053124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H4">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I4">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J4">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.618721000000001</v>
       </c>
       <c r="O4">
-        <v>0.2265800941785698</v>
+        <v>0.2297535500620831</v>
       </c>
       <c r="P4">
-        <v>0.2265800941785698</v>
+        <v>0.2297535500620831</v>
       </c>
       <c r="Q4">
-        <v>173.9781016681559</v>
+        <v>0.5371926316117779</v>
       </c>
       <c r="R4">
-        <v>1565.802915013403</v>
+        <v>4.834733684506</v>
       </c>
       <c r="S4">
-        <v>0.2189639453857257</v>
+        <v>0.01873260646928308</v>
       </c>
       <c r="T4">
-        <v>0.2189639453857257</v>
+        <v>0.01873260646928308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J5">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.125569</v>
+        <v>1.970755333333333</v>
       </c>
       <c r="N5">
-        <v>6.376707</v>
+        <v>5.912266</v>
       </c>
       <c r="O5">
-        <v>0.1896427067757364</v>
+        <v>0.178292931636603</v>
       </c>
       <c r="P5">
-        <v>0.1896427067757364</v>
+        <v>0.178292931636603</v>
       </c>
       <c r="Q5">
-        <v>2.611565472867</v>
+        <v>2.421354745012666</v>
       </c>
       <c r="R5">
-        <v>23.504089255803</v>
+        <v>21.792192705114</v>
       </c>
       <c r="S5">
-        <v>0.003286842850273284</v>
+        <v>0.08443579247310562</v>
       </c>
       <c r="T5">
-        <v>0.003286842850273284</v>
+        <v>0.08443579247310565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J6">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>19.629419</v>
       </c>
       <c r="O6">
-        <v>0.5837771990456937</v>
+        <v>0.5919535183013138</v>
       </c>
       <c r="P6">
-        <v>0.5837771990456937</v>
+        <v>0.5919535183013139</v>
       </c>
       <c r="Q6">
         <v>8.039182749472332</v>
@@ -818,10 +818,10 @@
         <v>72.35264474525098</v>
       </c>
       <c r="S6">
-        <v>0.01011788929539471</v>
+        <v>0.2803367691933408</v>
       </c>
       <c r="T6">
-        <v>0.01011788929539471</v>
+        <v>0.2803367691933409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J7">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>7.618721000000001</v>
       </c>
       <c r="O7">
-        <v>0.2265800941785698</v>
+        <v>0.2297535500620831</v>
       </c>
       <c r="P7">
-        <v>0.2265800941785698</v>
+        <v>0.2297535500620831</v>
       </c>
       <c r="Q7">
         <v>3.120229408534334</v>
@@ -880,10 +880,10 @@
         <v>28.082064676809</v>
       </c>
       <c r="S7">
-        <v>0.003927032972830165</v>
+        <v>0.1088064618991249</v>
       </c>
       <c r="T7">
-        <v>0.003927032972830165</v>
+        <v>0.108806461899125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J8">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.125569</v>
+        <v>1.970755333333333</v>
       </c>
       <c r="N8">
-        <v>6.376707</v>
+        <v>5.912266</v>
       </c>
       <c r="O8">
-        <v>0.1896427067757364</v>
+        <v>0.178292931636603</v>
       </c>
       <c r="P8">
-        <v>0.1896427067757364</v>
+        <v>0.178292931636603</v>
       </c>
       <c r="Q8">
-        <v>2.453345201737</v>
+        <v>2.274658287183778</v>
       </c>
       <c r="R8">
-        <v>22.080106815633</v>
+        <v>20.471924584654</v>
       </c>
       <c r="S8">
-        <v>0.003087711267192186</v>
+        <v>0.07932029599523825</v>
       </c>
       <c r="T8">
-        <v>0.003087711267192186</v>
+        <v>0.07932029599523827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J9">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>19.629419</v>
       </c>
       <c r="O9">
-        <v>0.5837771990456937</v>
+        <v>0.5919535183013138</v>
       </c>
       <c r="P9">
-        <v>0.5837771990456937</v>
+        <v>0.5919535183013139</v>
       </c>
       <c r="Q9">
         <v>7.552133243151222</v>
@@ -1004,10 +1004,10 @@
         <v>67.969199188361</v>
       </c>
       <c r="S9">
-        <v>0.009504902485677383</v>
+        <v>0.2633527187874418</v>
       </c>
       <c r="T9">
-        <v>0.009504902485677385</v>
+        <v>0.2633527187874418</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J10">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>7.618721000000001</v>
       </c>
       <c r="O10">
-        <v>0.2265800941785698</v>
+        <v>0.2297535500620831</v>
       </c>
       <c r="P10">
-        <v>0.2265800941785698</v>
+        <v>0.2297535500620831</v>
       </c>
       <c r="Q10">
         <v>2.931192010033223</v>
@@ -1066,10 +1066,10 @@
         <v>26.38072809029901</v>
       </c>
       <c r="S10">
-        <v>0.003689115820013954</v>
+        <v>0.1022144816936751</v>
       </c>
       <c r="T10">
-        <v>0.003689115820013955</v>
+        <v>0.1022144816936751</v>
       </c>
     </row>
   </sheetData>
